--- a/devices_export.xlsx
+++ b/devices_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,12 +553,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01021666565</t>
+          <t>01021669849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>اياب</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -568,84 +568,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dfljfl</t>
+          <t>تت</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nskns</t>
+          <t>تت</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>تم التسليم</t>
+          <t>قيد الإصلاح</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2025-07-06</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">تم </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>محمود يوسف عبدالجواد</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010216698479</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>lenovo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>64646464</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>fnbjbjf</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>jfdjgf</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>قيد الإصلاح</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-07-06</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
